--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D63D04-66A7-4495-A296-6B3736757CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CF070-DC1F-45B2-8B8F-B3221D63BC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Pavadinimas</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>AUDITORINIS</t>
+  </si>
+  <si>
+    <t>Tvarkaraštis</t>
   </si>
   <si>
     <t>Kontaktinis darbas (val.)</t>
@@ -204,26 +207,80 @@
     </r>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>SubjectType</t>
+  </si>
+  <si>
+    <t>LectureHours</t>
+  </si>
+  <si>
+    <t>PracticeHours</t>
+  </si>
+  <si>
+    <t>RemoteLectureHours</t>
+  </si>
+  <si>
+    <t>RemotePracticeHours</t>
+  </si>
+  <si>
+    <t>SelfStudyHours</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>EvaluationFormShort</t>
+  </si>
+  <si>
+    <t>FinalProjectExamCount</t>
+  </si>
+  <si>
+    <t>ConsultationCount</t>
+  </si>
+  <si>
+    <t>GradingNumberCount</t>
+  </si>
+  <si>
+    <t>OtherNonContactCount</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>CategoryDescription</t>
+  </si>
+  <si>
+    <t>1 - Dieninis, 2 - Sesijinis, 3 - Nuotolinis, 4 - English</t>
+  </si>
+  <si>
+    <t>StudyType</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
     <t>Fakultetas</t>
   </si>
   <si>
+    <t>EIF</t>
+  </si>
+  <si>
     <t>Programų sistemos</t>
   </si>
   <si>
-    <t>EIF</t>
-  </si>
-  <si>
     <t>PĮK</t>
-  </si>
-  <si>
-    <t>1 - Dieninis, 2-Sesijinis, 3 - Nuotolinis, Kitas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +339,14 @@
       <charset val="186"/>
     </font>
     <font>
-      <sz val="11.3"/>
+      <sz val="10.5"/>
       <color rgb="FF202020"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0093A1"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -448,7 +511,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -468,6 +531,55 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -491,48 +603,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -871,108 +941,166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AFB9C-051B-4E82-87CA-D73E0F372B8B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:Z9"/>
+  <dimension ref="C1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
     <col min="4" max="4" width="28.453125" customWidth="1"/>
     <col min="5" max="5" width="11.6328125" customWidth="1"/>
     <col min="6" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="23.7265625" customWidth="1"/>
     <col min="13" max="13" width="24.1796875" customWidth="1"/>
     <col min="14" max="14" width="44.90625" customWidth="1"/>
-    <col min="15" max="15" width="32" customWidth="1"/>
-    <col min="16" max="16" width="27.08984375" customWidth="1"/>
-    <col min="17" max="17" width="18.7265625" customWidth="1"/>
+    <col min="15" max="15" width="38.1796875" customWidth="1"/>
+    <col min="16" max="17" width="17.81640625" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="11.26953125" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="17.90625" customWidth="1"/>
+    <col min="27" max="27" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26">
-      <c r="R3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="7"/>
+    <row r="1" spans="3:27">
+      <c r="D1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="3:27">
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27">
+      <c r="S3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="19"/>
+      <c r="U3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:26">
-      <c r="R4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="9" t="s">
+    <row r="4" spans="3:27">
+      <c r="S4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="73.5" customHeight="1">
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="24" t="s">
+    <row r="5" spans="3:27" ht="73.5" customHeight="1">
+      <c r="G5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="11" t="s">
+      <c r="J5" s="13"/>
+      <c r="P5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="10"/>
+      <c r="Z5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="24"/>
     </row>
-    <row r="6" spans="1:26" ht="42.5" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="3:27" ht="42.5" customHeight="1">
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>0</v>
@@ -1010,31 +1138,30 @@
       <c r="O6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="5"/>
+      <c r="P6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="Q6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
+      <c r="R6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
     </row>
-    <row r="7" spans="1:26" ht="15">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
+    <row r="7" spans="3:27">
+      <c r="C7" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -1066,11 +1193,15 @@
         <v>18</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="2"/>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1079,16 +1210,11 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
+    <row r="8" spans="3:27">
+      <c r="C8" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
@@ -1122,11 +1248,15 @@
       <c r="O8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="2"/>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1135,16 +1265,11 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
+    <row r="9" spans="3:27">
+      <c r="C9" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
@@ -1178,11 +1303,15 @@
       <c r="O9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="2"/>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1191,21 +1320,22 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="Z4:Z6"/>
-    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="AA4:AA6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CF070-DC1F-45B2-8B8F-B3221D63BC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5538D2-71D1-41F9-9CB2-F6ED982F9E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dieninės studijos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>Pavadinimas</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Credits</t>
   </si>
   <si>
-    <t>EvaluationFormShort</t>
-  </si>
-  <si>
     <t>FinalProjectExamCount</t>
   </si>
   <si>
@@ -261,26 +258,38 @@
     <t>StudyType</t>
   </si>
   <si>
-    <t>ShortName</t>
-  </si>
-  <si>
-    <t>Fakultetas</t>
-  </si>
-  <si>
-    <t>EIF</t>
-  </si>
-  <si>
     <t>Programų sistemos</t>
   </si>
   <si>
-    <t>PĮK</t>
+    <t>EvaluationForm</t>
+  </si>
+  <si>
+    <t>Kita</t>
+  </si>
+  <si>
+    <t>OtherContactHoursCount</t>
+  </si>
+  <si>
+    <t>HomeworkHoursCount</t>
+  </si>
+  <si>
+    <t>PracticeReportHoursCount</t>
+  </si>
+  <si>
+    <t>RemoteTeachingHoursCount</t>
+  </si>
+  <si>
+    <t>CourseWorkHoursCount</t>
+  </si>
+  <si>
+    <t>ExamHours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +359,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8.3000000000000007"/>
+      <color rgb="FF202020"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -371,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -505,13 +520,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -541,6 +576,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,29 +639,16 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -941,401 +987,405 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AFB9C-051B-4E82-87CA-D73E0F372B8B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C1:AA9"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="28.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" customWidth="1"/>
-    <col min="13" max="13" width="24.1796875" customWidth="1"/>
-    <col min="14" max="14" width="44.90625" customWidth="1"/>
-    <col min="15" max="15" width="38.1796875" customWidth="1"/>
-    <col min="16" max="17" width="17.81640625" customWidth="1"/>
-    <col min="18" max="18" width="18.7265625" customWidth="1"/>
-    <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="11.26953125" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="17.90625" customWidth="1"/>
-    <col min="27" max="27" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="7" width="16.36328125" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="23.7265625" customWidth="1"/>
+    <col min="12" max="12" width="24.1796875" customWidth="1"/>
+    <col min="13" max="13" width="44.90625" customWidth="1"/>
+    <col min="14" max="14" width="38.1796875" customWidth="1"/>
+    <col min="15" max="16" width="22.453125" customWidth="1"/>
+    <col min="17" max="17" width="17.6328125" customWidth="1"/>
+    <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" customWidth="1"/>
+    <col min="20" max="20" width="18.08984375" customWidth="1"/>
+    <col min="21" max="21" width="17.26953125" customWidth="1"/>
+    <col min="22" max="22" width="23" customWidth="1"/>
+    <col min="23" max="23" width="28" customWidth="1"/>
+    <col min="24" max="24" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:27">
-      <c r="D1" s="9" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="B1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>44</v>
+      <c r="P2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="3:27">
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="3:27">
-      <c r="S3" s="18" t="s">
+    <row r="3" spans="1:24">
+      <c r="O3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="7" t="s">
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="3:27">
-      <c r="S4" s="14" t="s">
+    <row r="4" spans="1:24">
+      <c r="O4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="R4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="23" t="s">
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:27" ht="73.5" customHeight="1">
-      <c r="G5" s="13" t="s">
+    <row r="5" spans="1:24" ht="73.5" customHeight="1">
+      <c r="B5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="P5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="6" t="s">
+      <c r="I5" s="19"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="S5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="T5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="U5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="27" t="s">
+      <c r="V5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="23" t="s">
+      <c r="W5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="24"/>
+      <c r="X5" s="14"/>
     </row>
-    <row r="6" spans="3:27" ht="42.5" customHeight="1">
+    <row r="6" spans="1:24" ht="42.5" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2">
+        <v>54</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2">
         <v>6</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-    </row>
-    <row r="7" spans="3:27">
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="2">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2">
-        <v>54</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2">
-        <v>66</v>
-      </c>
-      <c r="L7" s="2">
-        <v>6</v>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="3:27">
-      <c r="C8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="8" spans="1:24">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="F8" s="2">
+        <v>54</v>
+      </c>
       <c r="G8" s="2">
-        <v>54</v>
-      </c>
-      <c r="H8" s="2">
         <v>36</v>
       </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>66</v>
+      </c>
       <c r="K8" s="2">
-        <v>66</v>
-      </c>
-      <c r="L8" s="2">
         <v>6</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="3:27">
-      <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="9" spans="1:24">
+      <c r="A9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="F9" s="2">
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>48</v>
       </c>
-      <c r="H9" s="2">
-        <v>48</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>60</v>
+      </c>
       <c r="K9" s="2">
-        <v>60</v>
-      </c>
-      <c r="L9" s="2">
         <v>6</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M9" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
     </row>
+    <row r="14" spans="1:24" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5538D2-71D1-41F9-9CB2-F6ED982F9E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803E956-1CE5-4EF9-AC3E-8BBEF1EB62C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dieninės studijos" sheetId="1" r:id="rId1"/>
     <sheet name="Planuojamos Grupės" sheetId="4" r:id="rId2"/>
+    <sheet name="Dėstytojai" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -576,6 +577,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -599,56 +650,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -989,8 +990,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1066,7 +1067,7 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="15" t="s">
         <v>64</v>
       </c>
       <c r="Q2" t="s">
@@ -1095,11 +1096,11 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
       <c r="R3" s="7" t="s">
         <v>41</v>
       </c>
@@ -1111,22 +1112,22 @@
       <c r="X3" s="7"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="22" t="s">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="13" t="s">
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1134,38 +1135,38 @@
       <c r="B5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="30" t="s">
+      <c r="I5" s="16"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="14"/>
+      <c r="X5" s="27"/>
     </row>
     <row r="6" spans="1:24" ht="42.5" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -1210,18 +1211,18 @@
       <c r="N6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="23"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="20"/>
       <c r="R6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
@@ -1374,18 +1375,18 @@
     <row r="14" spans="1:24" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R4:W4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1396,7 +1397,7 @@
   <dimension ref="D9:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1439,4 +1440,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3CD532-5F54-4A6C-A405-1C0612D5178F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1803E956-1CE5-4EF9-AC3E-8BBEF1EB62C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32E5709-8AF0-4349-9D5D-649933F2A6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dieninės studijos" sheetId="1" r:id="rId1"/>
-    <sheet name="Planuojamos Grupės" sheetId="4" r:id="rId2"/>
-    <sheet name="Dėstytojai" sheetId="5" r:id="rId3"/>
+    <sheet name="Dėstytojai" sheetId="5" r:id="rId2"/>
+    <sheet name="Planuojamos Grupės" sheetId="4" r:id="rId3"/>
+    <sheet name="NELIESTI" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>Pavadinimas</t>
   </si>
@@ -285,12 +286,108 @@
   <si>
     <t>ExamHours</t>
   </si>
+  <si>
+    <t>Vardas pavardė</t>
+  </si>
+  <si>
+    <t>El. Paštas</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Pareigos</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Katedros sutrumpinimas</t>
+  </si>
+  <si>
+    <t>Marius Gžegoževskis</t>
+  </si>
+  <si>
+    <t>m.gzegozevskis@eif.viko.lt</t>
+  </si>
+  <si>
+    <t>PĮK</t>
+  </si>
+  <si>
+    <t>Profesorius_23</t>
+  </si>
+  <si>
+    <t>Docentas_23</t>
+  </si>
+  <si>
+    <t>Docentas_menininkas_23</t>
+  </si>
+  <si>
+    <t>Lektorius dr._23</t>
+  </si>
+  <si>
+    <t>Lektorius_23 (d)</t>
+  </si>
+  <si>
+    <t>Lektorius_23 (m)</t>
+  </si>
+  <si>
+    <t>Asistentas_23 (mag.)</t>
+  </si>
+  <si>
+    <t>Asistentas_23 (bak.)</t>
+  </si>
+  <si>
+    <t>Žymėjimas DU suvestinėje</t>
+  </si>
+  <si>
+    <t>Profesorius_24</t>
+  </si>
+  <si>
+    <t>Profesorius_Kv_24</t>
+  </si>
+  <si>
+    <t>Docentas_24</t>
+  </si>
+  <si>
+    <t>Docentas_Kv_24</t>
+  </si>
+  <si>
+    <t>Asistentas_24</t>
+  </si>
+  <si>
+    <t>Jaunesnysis asistentas_24</t>
+  </si>
+  <si>
+    <t>Vyresnysis lektorius_24</t>
+  </si>
+  <si>
+    <t>Lektorius_24</t>
+  </si>
+  <si>
+    <t>Dėstytojas praktikas_24</t>
+  </si>
+  <si>
+    <t>EKIK</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>Justinas Zailskas</t>
+  </si>
+  <si>
+    <t>l.zailskas@eif.viko.lt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +463,20 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.3000000000000007"/>
+      <color rgb="FF8C6C41"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -542,12 +653,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -588,6 +700,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,32 +766,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{97833F1E-FFF5-46CD-A372-4E7AA79669B3}"/>
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{FFE42D54-6E44-40A1-9693-77A464763B2D}"/>
@@ -991,7 +1112,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1096,11 +1217,11 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="7" t="s">
         <v>41</v>
       </c>
@@ -1112,22 +1233,22 @@
       <c r="X3" s="7"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="24" t="s">
         <v>32</v>
       </c>
       <c r="P4" s="13"/>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="26" t="s">
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1135,38 +1256,38 @@
       <c r="B5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="O5" s="18"/>
+      <c r="I5" s="23"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="20"/>
+      <c r="Q5" s="27"/>
       <c r="R5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="28" t="s">
+      <c r="U5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="30" t="s">
+      <c r="V5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="26" t="s">
+      <c r="W5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="27"/>
+      <c r="X5" s="18"/>
     </row>
     <row r="6" spans="1:24" ht="42.5" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -1211,18 +1332,18 @@
       <c r="N6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="18"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
@@ -1375,29 +1496,696 @@
     <row r="14" spans="1:24" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="X4:X6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3CD532-5F54-4A6C-A405-1C0612D5178F}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="24.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.08984375" customWidth="1"/>
+    <col min="6" max="6" width="50.6328125" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{52236FE0-FB99-43F0-B91A-6C7624F2CE34}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{420E3AB4-6495-4BD9-B6A5-4719EEFA9D67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25661199-707E-4061-A1F1-F77C7DBAE4F0}">
+          <x14:formula1>
+            <xm:f>NELIESTI!$G$5:$G$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>F7:F8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08739EDB-4A9E-4FA8-B849-5EA9A137A6C7}">
+          <x14:formula1>
+            <xm:f>NELIESTI!$K$5:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G7:G8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B21882C-DD38-44B6-AE70-84488F23AAC4}">
   <dimension ref="D9:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1442,16 +2230,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3CD532-5F54-4A6C-A405-1C0612D5178F}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302BBBF7-1BCB-4EF8-9B5D-634B29036936}">
+  <dimension ref="G5:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="42.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:12">
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12">
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="7:12">
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12">
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12">
+      <c r="G9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12">
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12">
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12">
+      <c r="G12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12">
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12">
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12">
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12">
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32E5709-8AF0-4349-9D5D-649933F2A6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5A9D6B-984C-42A3-8B7E-F3F8535E24DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11950" windowHeight="15370" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dieninės studijos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>Pavadinimas</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>Studijų programa</t>
-  </si>
-  <si>
-    <t>Studijų forma</t>
-  </si>
-  <si>
-    <t>Katedra</t>
   </si>
   <si>
     <t>Pogrupių skaičius</t>
@@ -381,6 +375,30 @@
   </si>
   <si>
     <t>l.zailskas@eif.viko.lt</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>Vnf</t>
+  </si>
+  <si>
+    <t>SubGroupCount</t>
+  </si>
+  <si>
+    <t>Kompiuterių inžinerija</t>
+  </si>
+  <si>
+    <t>Informacijos sistemos</t>
+  </si>
+  <si>
+    <t>Programinės įrangos testavimas</t>
+  </si>
+  <si>
+    <t>Elektronikos inžinerija</t>
+  </si>
+  <si>
+    <t>PI25A</t>
   </si>
 </sst>
 </file>
@@ -659,7 +677,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -703,74 +721,75 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1111,8 +1130,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1142,88 +1161,88 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="S2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="O3" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -1234,67 +1253,67 @@
     </row>
     <row r="4" spans="1:24">
       <c r="O4" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="30" t="s">
         <v>40</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
       <c r="W4" s="32"/>
-      <c r="X4" s="17" t="s">
-        <v>43</v>
+      <c r="X4" s="33" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="73.5" customHeight="1">
       <c r="B5" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="23"/>
       <c r="O5" s="25"/>
       <c r="P5" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="27"/>
       <c r="R5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="U5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="V5" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="W5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="V5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="18"/>
+      <c r="X5" s="34"/>
     </row>
     <row r="6" spans="1:24" ht="42.5" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>0</v>
@@ -1336,30 +1355,30 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
         <v>36</v>
@@ -1376,10 +1395,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1395,19 +1414,19 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
         <v>54</v>
@@ -1424,13 +1443,13 @@
         <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1445,19 +1464,19 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>48</v>
@@ -1474,13 +1493,13 @@
         <v>6</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1496,18 +1515,18 @@
     <row r="14" spans="1:24" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R4:W4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1517,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3CD532-5F54-4A6C-A405-1C0612D5178F}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1530,628 +1549,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="34" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="G6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="E7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33" t="s">
+      <c r="F7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2182,165 +2201,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B21882C-DD38-44B6-AE70-84488F23AAC4}">
-  <dimension ref="D9:K9"/>
+  <dimension ref="D5:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" customWidth="1"/>
     <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="21.90625" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:11">
-      <c r="D9" s="1" t="s">
+    <row r="5" spans="4:10" ht="29">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="4:10">
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CADE47C5-F00C-4719-BDCC-3782C6B34EEB}">
+          <x14:formula1>
+            <xm:f>NELIESTI!$N$5:$N$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>I7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302BBBF7-1BCB-4EF8-9B5D-634B29036936}">
-  <dimension ref="G5:L22"/>
+  <dimension ref="G5:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="42.453125" customWidth="1"/>
+    <col min="14" max="14" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:12">
+    <row r="5" spans="7:14">
       <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="7:14">
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14">
+      <c r="G7" t="s">
         <v>80</v>
       </c>
-      <c r="K5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="7:12">
-      <c r="G6" t="s">
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14">
+      <c r="G8" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="7:12">
-      <c r="G7" t="s">
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14">
+      <c r="G9" t="s">
         <v>82</v>
       </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12">
-      <c r="G8" t="s">
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="7:12">
-      <c r="G9" t="s">
+    <row r="11" spans="7:14">
+      <c r="G11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="7:12">
-      <c r="G10" t="s">
+    <row r="12" spans="7:14">
+      <c r="G12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="7:12">
-      <c r="G11" t="s">
+    <row r="13" spans="7:14">
+      <c r="G13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="7:12">
-      <c r="G12" t="s">
+    <row r="14" spans="7:14">
+      <c r="G14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="7:12">
-      <c r="G13" t="s">
+    <row r="15" spans="7:14">
+      <c r="G15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="7:12">
-      <c r="G14" t="s">
+    <row r="16" spans="7:14">
+      <c r="G16" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="7:12">
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="7:12">
-      <c r="G16" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5A9D6B-984C-42A3-8B7E-F3F8535E24DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC5E13-21A8-4BA4-8D3B-ED617EAC745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="11950" windowHeight="15370" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dieninės studijos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>Pavadinimas</t>
   </si>
@@ -96,27 +96,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Studijų krypties dalykai (moduliai) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1. Privalomi dalykai (moduliai) </t>
-  </si>
-  <si>
-    <t>Matematika</t>
-  </si>
-  <si>
-    <t>2.2. Specializacijos</t>
-  </si>
-  <si>
-    <t>2.2.1. Specializacija -………………….</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>Duomenų bazių valdymo sistemos</t>
   </si>
   <si>
     <t>NUOTOLINIS DARBAS</t>
@@ -400,12 +379,33 @@
   <si>
     <t>PI25A</t>
   </si>
+  <si>
+    <t>Specialybės kalba</t>
+  </si>
+  <si>
+    <t>Aplinkos ir žmonių sauga</t>
+  </si>
+  <si>
+    <t>Vadyba</t>
+  </si>
+  <si>
+    <t>Sociologija</t>
+  </si>
+  <si>
+    <t>Teisė</t>
+  </si>
+  <si>
+    <t>Ekonomika</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,13 +420,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="186"/>
     </font>
     <font>
       <sz val="11"/>
@@ -495,8 +488,25 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="TimesLT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="186"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,12 +517,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -671,131 +675,140 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{C6F2CB3D-E72E-42AA-B278-0C9469AD944C}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{97833F1E-FFF5-46CD-A372-4E7AA79669B3}"/>
     <cellStyle name="Normal 3 2" xfId="1" xr:uid="{FFE42D54-6E44-40A1-9693-77A464763B2D}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{E5F21689-A4D3-4653-9823-15D69B5A3CE0}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{EF0545CF-C353-4DC9-BEE6-183F2F252CD1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1130,8 +1143,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1160,218 +1173,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="O2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="O3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="O4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="73.5" customHeight="1">
+      <c r="B5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="O3" s="28" t="s">
+      <c r="Q5" s="31"/>
+      <c r="R5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="O4" s="24" t="s">
+      <c r="X5" s="22"/>
+    </row>
+    <row r="6" spans="1:24" ht="42.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="29"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="73.5" customHeight="1">
-      <c r="B5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="W5" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="34"/>
-    </row>
-    <row r="6" spans="1:24" ht="42.5" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2">
@@ -1414,13 +1427,13 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
+      <c r="C8" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1429,10 +1442,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1446,11 +1459,9 @@
         <v>18</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1464,25 +1475,25 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
+      <c r="C9" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="D9" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1496,11 +1507,9 @@
         <v>18</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1512,21 +1521,213 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="39">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="39">
+        <v>16</v>
+      </c>
+      <c r="G10" s="39">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="39">
+        <v>46</v>
+      </c>
+      <c r="K10" s="39">
+        <v>3</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="39">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2">
+        <v>46</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="39">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
+        <v>30</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="39">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="X4:X6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1549,628 +1750,628 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
+      <c r="G8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2220,22 +2421,22 @@
   <sheetData>
     <row r="5" spans="4:10" ht="29">
       <c r="D5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>57</v>
+        <v>94</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="4:10">
@@ -2251,8 +2452,8 @@
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>28</v>
+      <c r="H6" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
@@ -2263,7 +2464,7 @@
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2275,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -2314,117 +2515,117 @@
   <sheetData>
     <row r="5" spans="7:14">
       <c r="G5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="7:14">
       <c r="G6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="L6" s="14"/>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="7:14">
       <c r="G7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="7:14">
       <c r="G8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="7:14">
       <c r="G9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="7:14">
       <c r="G10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="7:14">
       <c r="G11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="7:14">
       <c r="G12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="7:14">
       <c r="G13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="7:14">
       <c r="G14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="7:14">
       <c r="G15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="7:14">
       <c r="G16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC5E13-21A8-4BA4-8D3B-ED617EAC745A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2FC5B6-282E-4CDC-83B8-A503F419D377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dieninės studijos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>Pavadinimas</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Studijų programa</t>
-  </si>
-  <si>
-    <t>Pogrupių skaičius</t>
   </si>
   <si>
     <t xml:space="preserve">Profesinė anglų kalba </t>
@@ -360,9 +357,6 @@
   </si>
   <si>
     <t>Vnf</t>
-  </si>
-  <si>
-    <t>SubGroupCount</t>
   </si>
   <si>
     <t>Kompiuterių inžinerija</t>
@@ -686,7 +680,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -732,6 +726,49 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection locked="0"/>
@@ -756,50 +793,6 @@
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1143,8 +1136,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1174,88 +1167,88 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="R2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="O3" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="O3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -1265,68 +1258,68 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="O4" s="28" t="s">
-        <v>23</v>
+      <c r="O4" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="P4" s="11"/>
-      <c r="Q4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="34" t="s">
+      <c r="Q4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="73.5" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="O5" s="29"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="Q5" s="27"/>
       <c r="R5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="T5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="U5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="23" t="s">
+      <c r="V5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="W5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="22"/>
+      <c r="X5" s="34"/>
     </row>
     <row r="6" spans="1:24" ht="42.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
@@ -1364,34 +1357,34 @@
       <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="29"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="31"/>
+      <c r="Q6" s="27"/>
       <c r="R6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>15</v>
+      <c r="C7" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>36</v>
@@ -1408,10 +1401,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1427,19 +1420,19 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>101</v>
+      <c r="C8" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>18</v>
@@ -1456,10 +1449,10 @@
         <v>6</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1475,19 +1468,19 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>102</v>
+      <c r="C9" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>16</v>
@@ -1504,10 +1497,10 @@
         <v>6</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1523,39 +1516,39 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="39">
+      <c r="C10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="39">
         <v>16</v>
       </c>
-      <c r="G10" s="39">
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
         <v>16</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="39">
+      <c r="J10" s="2">
         <v>46</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="2">
         <v>3</v>
       </c>
-      <c r="L10" s="39" t="s">
-        <v>107</v>
+      <c r="L10" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1571,19 +1564,19 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="39">
+      <c r="C11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2">
         <v>16</v>
@@ -1599,11 +1592,11 @@
       <c r="K11" s="2">
         <v>3</v>
       </c>
-      <c r="L11" s="39" t="s">
-        <v>107</v>
+      <c r="L11" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1619,19 +1612,19 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="39">
+      <c r="C12" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="2">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <v>32</v>
@@ -1647,11 +1640,11 @@
       <c r="K12" s="2">
         <v>3</v>
       </c>
-      <c r="L12" s="39" t="s">
-        <v>107</v>
+      <c r="L12" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1667,19 +1660,19 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
         <v>5</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="39">
+      <c r="C13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="2">
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2">
         <v>32</v>
@@ -1695,11 +1688,11 @@
       <c r="K13" s="2">
         <v>3</v>
       </c>
-      <c r="L13" s="39" t="s">
-        <v>107</v>
+      <c r="L13" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1716,18 +1709,18 @@
     <row r="14" spans="1:24" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R4:W4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1737,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3CD532-5F54-4A6C-A405-1C0612D5178F}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1818,16 +1811,16 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="G5" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
@@ -1842,16 +1835,16 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>62</v>
-      </c>
       <c r="F6" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -1866,16 +1859,16 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -1890,16 +1883,16 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>92</v>
-      </c>
       <c r="F8" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -2402,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B21882C-DD38-44B6-AE70-84488F23AAC4}">
-  <dimension ref="D5:J7"/>
+  <dimension ref="D5:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2416,30 +2409,26 @@
     <col min="7" max="7" width="20.453125" customWidth="1"/>
     <col min="8" max="8" width="23.81640625" customWidth="1"/>
     <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" ht="29">
+    <row r="5" spans="4:9" ht="29">
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
         <v>93</v>
       </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9">
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2453,18 +2442,15 @@
         <v>12</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10">
+    </row>
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2476,10 +2462,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2487,7 @@
   <dimension ref="G5:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2515,117 +2498,117 @@
   <sheetData>
     <row r="5" spans="7:14">
       <c r="G5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="7:14">
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="14"/>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="7:14">
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="7:14">
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="7:14">
       <c r="G9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="7:14">
       <c r="G10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="7:14">
       <c r="G11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="7:14">
       <c r="G12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="7:14">
       <c r="G13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="7:14">
       <c r="G14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="7:14">
       <c r="G15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="7:14">
       <c r="G16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="7:7">
       <c r="G17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="7:7">
       <c r="G18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="7:7">
       <c r="G19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="7:7">
       <c r="G20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="7:7">
       <c r="G22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2FC5B6-282E-4CDC-83B8-A503F419D377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2372C6-D2F1-41AC-9F77-1D1FB6FE7EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Dieninės studijos" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="161">
   <si>
     <t>Pavadinimas</t>
   </si>
@@ -394,12 +394,177 @@
   <si>
     <t>SP</t>
   </si>
+  <si>
+    <t>Matematika</t>
+  </si>
+  <si>
+    <t>Operacinės sistemos</t>
+  </si>
+  <si>
+    <t>Struktūrinis programavimas</t>
+  </si>
+  <si>
+    <t>Informatikos įvadas</t>
+  </si>
+  <si>
+    <t>Algoritmai ir duomenų struktūros</t>
+  </si>
+  <si>
+    <t>Tikimybių teorija ir matematinė statistika</t>
+  </si>
+  <si>
+    <t>Diskrečioji matematika</t>
+  </si>
+  <si>
+    <t>Žmogaus ir kompiuterio sąveikos projektavimas</t>
+  </si>
+  <si>
+    <t>Kompiuterinė grafika</t>
+  </si>
+  <si>
+    <t>Skaitiniai ir optimizavimo metodai</t>
+  </si>
+  <si>
+    <t>Duomenų bazių projektavimas</t>
+  </si>
+  <si>
+    <t>Objektinis programavimas</t>
+  </si>
+  <si>
+    <t>Verslo valdymo sistemos</t>
+  </si>
+  <si>
+    <t>Kompiuteriai ir jų tinklai</t>
+  </si>
+  <si>
+    <t>Daugiagijis programavimas</t>
+  </si>
+  <si>
+    <t>Saityno paslaugos</t>
+  </si>
+  <si>
+    <t>Informacijos saugumas</t>
+  </si>
+  <si>
+    <t>Programų sistemų testavimas</t>
+  </si>
+  <si>
+    <t>Programų sistemų inžinerija</t>
+  </si>
+  <si>
+    <t>Intelektika</t>
+  </si>
+  <si>
+    <t>Programinės įrangos kūrimo valdymas</t>
+  </si>
+  <si>
+    <t>2. Studijų krypties dalykai (moduliai)</t>
+  </si>
+  <si>
+    <t>2.1. Privalomi dalykai (moduliai)</t>
+  </si>
+  <si>
+    <t>Duomenų bazių valdymo sistemos</t>
+  </si>
+  <si>
+    <t>Duomenų tyryba</t>
+  </si>
+  <si>
+    <t>Duomenų bazių serverių administravimas</t>
+  </si>
+  <si>
+    <t>Nereliacinės duomenų bazės</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>2.2. Specializacijos</t>
+  </si>
+  <si>
+    <t>2.2.1. Specializacija -………………….</t>
+  </si>
+  <si>
+    <t>Mobiliosios programėlės</t>
+  </si>
+  <si>
+    <t>Hibridinės mobiliosios programėlės</t>
+  </si>
+  <si>
+    <t>Išmaniųjų įrenginių komponentų programavimas</t>
+  </si>
+  <si>
+    <t>Daiktų internetas</t>
+  </si>
+  <si>
+    <t>2.2.2. Specializacija - ……………</t>
+  </si>
+  <si>
+    <t>Interneto svetainių kliento dalies kūrimas</t>
+  </si>
+  <si>
+    <t>Interneto svetainių serverio dalies kūrimas</t>
+  </si>
+  <si>
+    <t>Saityno saugumas</t>
+  </si>
+  <si>
+    <t>Svetainių optimizacija paieškos sistemoms</t>
+  </si>
+  <si>
+    <t>2.2.3. Specializacija ………………..</t>
+  </si>
+  <si>
+    <t>Pirmoji programavimo praktika</t>
+  </si>
+  <si>
+    <t>Antroji programavimo praktika</t>
+  </si>
+  <si>
+    <t>Duomenų bazių praktika</t>
+  </si>
+  <si>
+    <t>Profesinė praktika</t>
+  </si>
+  <si>
+    <t>Baigiamoji praktika</t>
+  </si>
+  <si>
+    <t>2.3. Praktikos</t>
+  </si>
+  <si>
+    <t>2.4. Baigiamasis vertinimas</t>
+  </si>
+  <si>
+    <t>Baigiamasis darbas</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Programavimo kalba Java LPD</t>
+  </si>
+  <si>
+    <t>Programavimo kalba C# LPD</t>
+  </si>
+  <si>
+    <t>Programavimo kalba Python LPD</t>
+  </si>
+  <si>
+    <t>3D grafika LPD</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Laisvai pasirenkamieji dalykai </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,8 +664,15 @@
       <family val="1"/>
       <charset val="186"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="186"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,8 +685,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -668,6 +846,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -680,7 +893,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -730,6 +943,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,29 +1006,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1134,10 +1379,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5AFB9C-051B-4E82-87CA-D73E0F372B8B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1242,11 +1487,11 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1258,22 +1503,22 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="30" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="11"/>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="33" t="s">
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1281,38 +1526,38 @@
       <c r="B5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="O5" s="25"/>
+      <c r="I5" s="29"/>
+      <c r="O5" s="31"/>
       <c r="P5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="33"/>
       <c r="R5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="34"/>
+      <c r="X5" s="24"/>
     </row>
     <row r="6" spans="1:24" ht="42.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -1357,18 +1602,18 @@
       <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="25"/>
+      <c r="O6" s="31"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="27"/>
+      <c r="Q6" s="33"/>
       <c r="R6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
@@ -1519,7 +1764,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>101</v>
@@ -1567,7 +1812,7 @@
         <v>51</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>102</v>
@@ -1615,7 +1860,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>103</v>
@@ -1663,7 +1908,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>104</v>
@@ -1706,21 +1951,2200 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:24" ht="13.5" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="49">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="22">
+        <v>54</v>
+      </c>
+      <c r="G14" s="22">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="22">
+        <v>66</v>
+      </c>
+      <c r="K14" s="22">
+        <v>6</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="22">
+        <v>54</v>
+      </c>
+      <c r="G15" s="22">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="22">
+        <v>76</v>
+      </c>
+      <c r="K15" s="22">
+        <v>6</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="49">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="22">
+        <v>36</v>
+      </c>
+      <c r="G16" s="22">
+        <v>54</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="22">
+        <v>66</v>
+      </c>
+      <c r="K16" s="22">
+        <v>6</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="49">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22">
+        <v>36</v>
+      </c>
+      <c r="G17" s="22">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="22">
+        <v>16</v>
+      </c>
+      <c r="K17" s="22">
+        <v>3</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="49">
+        <v>2</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="22">
+        <v>48</v>
+      </c>
+      <c r="G18" s="22">
+        <v>48</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="22">
+        <v>60</v>
+      </c>
+      <c r="K18" s="22">
+        <v>6</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" ht="26.5">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="49">
+        <v>2</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="22">
+        <v>32</v>
+      </c>
+      <c r="G19" s="22">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="22">
+        <v>30</v>
+      </c>
+      <c r="K19" s="22">
+        <v>3</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="49">
+        <v>2</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="22">
+        <v>32</v>
+      </c>
+      <c r="G20" s="22">
+        <v>32</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="22">
+        <v>14</v>
+      </c>
+      <c r="K20" s="22">
+        <v>3</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" ht="26.5">
+      <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="49">
+        <v>2</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="22">
+        <v>48</v>
+      </c>
+      <c r="G21" s="22">
+        <v>48</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="22">
+        <v>70</v>
+      </c>
+      <c r="K21" s="22">
+        <v>6</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="49">
+        <v>2</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="22">
+        <v>32</v>
+      </c>
+      <c r="G22" s="22">
+        <v>48</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="22">
+        <v>76</v>
+      </c>
+      <c r="K22" s="22">
+        <v>6</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="49">
+        <v>3</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="22">
+        <v>48</v>
+      </c>
+      <c r="G23" s="22">
+        <v>32</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="22">
+        <v>76</v>
+      </c>
+      <c r="K23" s="22">
+        <v>6</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="49">
+        <v>3</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="22">
+        <v>48</v>
+      </c>
+      <c r="G24" s="22">
+        <v>32</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="22">
+        <v>86</v>
+      </c>
+      <c r="K24" s="22">
+        <v>6</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="49">
+        <v>3</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="22">
+        <v>32</v>
+      </c>
+      <c r="G25" s="22">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="22">
+        <v>14</v>
+      </c>
+      <c r="K25" s="22">
+        <v>3</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="49">
+        <v>3</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="22">
+        <v>48</v>
+      </c>
+      <c r="G26" s="22">
+        <v>48</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="22">
+        <v>60</v>
+      </c>
+      <c r="K26" s="22">
+        <v>6</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="49">
+        <v>4</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="22">
+        <v>32</v>
+      </c>
+      <c r="G27" s="22">
+        <v>32</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="22">
+        <v>14</v>
+      </c>
+      <c r="K27" s="22">
+        <v>3</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="49">
+        <v>4</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="22">
+        <v>48</v>
+      </c>
+      <c r="G28" s="22">
+        <v>32</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="22">
+        <v>86</v>
+      </c>
+      <c r="K28" s="22">
+        <v>6</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="49">
+        <v>4</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="22">
+        <v>32</v>
+      </c>
+      <c r="G29" s="22">
+        <v>32</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="22">
+        <v>14</v>
+      </c>
+      <c r="K29" s="22">
+        <v>3</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="49">
+        <v>4</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="22">
+        <v>48</v>
+      </c>
+      <c r="G30" s="22">
+        <v>48</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="22">
+        <v>60</v>
+      </c>
+      <c r="K30" s="22">
+        <v>6</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="49">
+        <v>4</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="22">
+        <v>48</v>
+      </c>
+      <c r="G31" s="22">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="22">
+        <v>60</v>
+      </c>
+      <c r="K31" s="22">
+        <v>6</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="49">
+        <v>5</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="22">
+        <v>16</v>
+      </c>
+      <c r="G32" s="22">
+        <v>32</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="22">
+        <v>30</v>
+      </c>
+      <c r="K32" s="22">
+        <v>3</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="49">
+        <v>5</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="22">
+        <v>32</v>
+      </c>
+      <c r="G33" s="22">
+        <v>32</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="22">
+        <v>24</v>
+      </c>
+      <c r="K33" s="22">
+        <v>3</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="49">
+        <v>6</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="22">
+        <v>48</v>
+      </c>
+      <c r="G34" s="22">
+        <v>36</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="22">
+        <v>72</v>
+      </c>
+      <c r="K34" s="22">
+        <v>6</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:24" ht="26.5">
+      <c r="A35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="49">
+        <v>6</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="22">
+        <v>24</v>
+      </c>
+      <c r="G35" s="22">
+        <v>36</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="22">
+        <v>28</v>
+      </c>
+      <c r="K35" s="22">
+        <v>3</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="49">
+        <v>5</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="50">
+        <v>48</v>
+      </c>
+      <c r="G36" s="50">
+        <v>48</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="50">
+        <v>60</v>
+      </c>
+      <c r="K36" s="50">
+        <v>6</v>
+      </c>
+      <c r="L36" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="49">
+        <v>5</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="51">
+        <v>48</v>
+      </c>
+      <c r="G37" s="51">
+        <v>32</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="51">
+        <v>76</v>
+      </c>
+      <c r="K37" s="51">
+        <v>6</v>
+      </c>
+      <c r="L37" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="1:24" ht="26.5">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="49">
+        <v>6</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="50">
+        <v>24</v>
+      </c>
+      <c r="G38" s="50">
+        <v>24</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="50">
+        <v>30</v>
+      </c>
+      <c r="K38" s="50">
+        <v>3</v>
+      </c>
+      <c r="L38" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="49">
+        <v>6</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="51">
+        <v>24</v>
+      </c>
+      <c r="G39" s="51">
+        <v>24</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="51">
+        <v>30</v>
+      </c>
+      <c r="K39" s="51">
+        <v>3</v>
+      </c>
+      <c r="L39" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="49">
+        <v>5</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="50">
+        <v>48</v>
+      </c>
+      <c r="G40" s="50">
+        <v>48</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="50">
+        <v>60</v>
+      </c>
+      <c r="K40" s="50">
+        <v>6</v>
+      </c>
+      <c r="L40" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="49">
+        <v>5</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="51">
+        <v>48</v>
+      </c>
+      <c r="G41" s="51">
+        <v>32</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="51">
+        <v>76</v>
+      </c>
+      <c r="K41" s="51">
+        <v>6</v>
+      </c>
+      <c r="L41" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="1:24" ht="26.5">
+      <c r="A42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="49">
+        <v>6</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="50">
+        <v>24</v>
+      </c>
+      <c r="G42" s="50">
+        <v>24</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="50">
+        <v>30</v>
+      </c>
+      <c r="K42" s="50">
+        <v>3</v>
+      </c>
+      <c r="L42" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="49">
+        <v>6</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="51">
+        <v>24</v>
+      </c>
+      <c r="G43" s="51">
+        <v>24</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="51">
+        <v>30</v>
+      </c>
+      <c r="K43" s="51">
+        <v>3</v>
+      </c>
+      <c r="L43" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="1:24" ht="26.5">
+      <c r="A44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="49">
+        <v>5</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="50">
+        <v>48</v>
+      </c>
+      <c r="G44" s="50">
+        <v>32</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="50">
+        <v>76</v>
+      </c>
+      <c r="K44" s="50">
+        <v>6</v>
+      </c>
+      <c r="L44" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+    </row>
+    <row r="45" spans="1:24" ht="26.5">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="49">
+        <v>5</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="51">
+        <v>48</v>
+      </c>
+      <c r="G45" s="51">
+        <v>48</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="51">
+        <v>60</v>
+      </c>
+      <c r="K45" s="51">
+        <v>6</v>
+      </c>
+      <c r="L45" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="49">
+        <v>6</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="50">
+        <v>24</v>
+      </c>
+      <c r="G46" s="50">
+        <v>24</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="50">
+        <v>30</v>
+      </c>
+      <c r="K46" s="50">
+        <v>3</v>
+      </c>
+      <c r="L46" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+    </row>
+    <row r="47" spans="1:24" ht="26.5">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="49">
+        <v>6</v>
+      </c>
+      <c r="E47" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="51">
+        <v>24</v>
+      </c>
+      <c r="G47" s="51">
+        <v>24</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="51">
+        <v>30</v>
+      </c>
+      <c r="K47" s="51">
+        <v>3</v>
+      </c>
+      <c r="L47" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="49">
+        <v>2</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="50">
+        <v>0</v>
+      </c>
+      <c r="G48" s="51">
+        <v>48</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="51">
+        <v>40</v>
+      </c>
+      <c r="K48" s="51">
+        <v>3</v>
+      </c>
+      <c r="L48" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="49">
+        <v>3</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="52">
+        <v>0</v>
+      </c>
+      <c r="G49" s="52">
+        <v>48</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="50">
+        <v>40</v>
+      </c>
+      <c r="K49" s="50">
+        <v>3</v>
+      </c>
+      <c r="L49" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="49">
+        <v>4</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="50">
+        <v>0</v>
+      </c>
+      <c r="G50" s="52">
+        <v>48</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="51">
+        <v>40</v>
+      </c>
+      <c r="K50" s="51">
+        <v>3</v>
+      </c>
+      <c r="L50" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="49">
+        <v>6</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="52">
+        <v>0</v>
+      </c>
+      <c r="G51" s="52">
+        <v>192</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="50">
+        <v>140</v>
+      </c>
+      <c r="K51" s="50">
+        <v>12</v>
+      </c>
+      <c r="L51" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="49">
+        <v>7</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="50">
+        <v>0</v>
+      </c>
+      <c r="G52" s="52">
+        <v>240</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="51">
+        <v>150</v>
+      </c>
+      <c r="K52" s="51">
+        <v>15</v>
+      </c>
+      <c r="L52" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="43">
+        <v>1</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="49">
+        <v>7</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="52">
+        <v>0</v>
+      </c>
+      <c r="G53" s="52">
+        <v>32</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="50">
+        <v>378</v>
+      </c>
+      <c r="K53" s="50">
+        <v>15</v>
+      </c>
+      <c r="L53" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="43">
+        <v>1</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="49">
+        <v>5</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="51">
+        <v>16</v>
+      </c>
+      <c r="G54" s="51">
+        <v>32</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="51">
+        <v>30</v>
+      </c>
+      <c r="K54" s="51">
+        <v>3</v>
+      </c>
+      <c r="L54" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="43">
+        <v>1</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="49">
+        <v>5</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="50">
+        <v>16</v>
+      </c>
+      <c r="G55" s="50">
+        <v>32</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="50">
+        <v>30</v>
+      </c>
+      <c r="K55" s="50">
+        <v>3</v>
+      </c>
+      <c r="L55" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="43">
+        <v>1</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="49">
+        <v>6</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="51">
+        <v>24</v>
+      </c>
+      <c r="G56" s="51">
+        <v>24</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="51">
+        <v>30</v>
+      </c>
+      <c r="K56" s="51">
+        <v>3</v>
+      </c>
+      <c r="L56" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="43">
+        <v>1</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="49">
+        <v>6</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="50">
+        <v>24</v>
+      </c>
+      <c r="G57" s="50">
+        <v>24</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="50">
+        <v>30</v>
+      </c>
+      <c r="K57" s="50">
+        <v>3</v>
+      </c>
+      <c r="L57" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="X4:X6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U5:U6"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2397,7 +4821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B21882C-DD38-44B6-AE70-84488F23AAC4}">
   <dimension ref="D5:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Temp/VikoSoftas.xlsx
+++ b/Temp/VikoSoftas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\RiderProjects\StudyPlannerSoft\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2372C6-D2F1-41AC-9F77-1D1FB6FE7EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702D4D11-E1C7-414A-903A-26D06F20514F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21895D19-E83E-4291-85E6-D54AFA7116BC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="160">
   <si>
     <t>Pavadinimas</t>
   </si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>Asistentas_23 (bak.)</t>
-  </si>
-  <si>
-    <t>Žymėjimas DU suvestinėje</t>
   </si>
   <si>
     <t>Profesorius_24</t>
@@ -893,7 +890,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -943,29 +940,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1006,37 +1007,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1381,8 +1374,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB42" sqref="AB42"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1487,11 +1480,11 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
       <c r="R3" s="5" t="s">
         <v>31</v>
       </c>
@@ -1503,22 +1496,22 @@
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="36" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="11"/>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="23" t="s">
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="45" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1526,38 +1519,38 @@
       <c r="B5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="O5" s="31"/>
+      <c r="I5" s="35"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="39"/>
       <c r="R5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="27" t="s">
+      <c r="V5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="W5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="24"/>
+      <c r="X5" s="46"/>
     </row>
     <row r="6" spans="1:24" ht="42.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -1602,18 +1595,18 @@
       <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="39"/>
       <c r="R6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
@@ -1671,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1719,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -1767,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1790,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>15</v>
@@ -1815,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -1838,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>15</v>
@@ -1863,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -1886,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>15</v>
@@ -1911,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -1934,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>15</v>
@@ -1958,10 +1951,10 @@
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="49">
+      <c r="C14" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1985,10 +1978,10 @@
         <v>17</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -2008,10 +2001,10 @@
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="49">
+      <c r="C15" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2035,10 +2028,10 @@
         <v>17</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -2058,10 +2051,10 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="49">
+      <c r="C16" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2085,10 +2078,10 @@
         <v>17</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -2108,10 +2101,10 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="49">
+      <c r="C17" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2132,13 +2125,13 @@
         <v>3</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2158,13 +2151,13 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="49">
+      <c r="C18" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="22">
@@ -2185,10 +2178,10 @@
         <v>17</v>
       </c>
       <c r="M18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -2208,13 +2201,13 @@
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="49">
+      <c r="C19" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="22">
@@ -2232,13 +2225,13 @@
         <v>3</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -2258,13 +2251,13 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="49">
+      <c r="C20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="22">
@@ -2285,10 +2278,10 @@
         <v>17</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -2308,13 +2301,13 @@
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="49">
+      <c r="C21" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="22">
@@ -2335,10 +2328,10 @@
         <v>17</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2358,13 +2351,13 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="49">
+      <c r="C22" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="22">
@@ -2385,10 +2378,10 @@
         <v>17</v>
       </c>
       <c r="M22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2408,13 +2401,13 @@
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="49">
+      <c r="C23" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="2">
         <v>3</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="22">
@@ -2435,10 +2428,10 @@
         <v>17</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -2458,13 +2451,13 @@
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="49">
+      <c r="C24" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="22">
@@ -2485,10 +2478,10 @@
         <v>17</v>
       </c>
       <c r="M24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2508,13 +2501,13 @@
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="49">
+      <c r="C25" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="22">
@@ -2535,10 +2528,10 @@
         <v>17</v>
       </c>
       <c r="M25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2558,13 +2551,13 @@
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="49">
+      <c r="C26" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="2">
         <v>3</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="22">
@@ -2585,10 +2578,10 @@
         <v>17</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2608,13 +2601,13 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="49">
+      <c r="C27" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="22">
@@ -2632,13 +2625,13 @@
         <v>3</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -2658,13 +2651,13 @@
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="49">
+      <c r="C28" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="22">
@@ -2685,10 +2678,10 @@
         <v>17</v>
       </c>
       <c r="M28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2708,13 +2701,13 @@
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="49">
+      <c r="C29" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="22">
@@ -2735,10 +2728,10 @@
         <v>17</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2758,13 +2751,13 @@
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="49">
+      <c r="C30" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="22">
@@ -2785,10 +2778,10 @@
         <v>17</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2808,13 +2801,13 @@
       <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="49">
+      <c r="C31" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="2">
         <v>4</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F31" s="22">
@@ -2835,10 +2828,10 @@
         <v>17</v>
       </c>
       <c r="M31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2858,13 +2851,13 @@
       <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="49">
+      <c r="C32" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="2">
         <v>5</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="22">
@@ -2882,13 +2875,13 @@
         <v>3</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2908,13 +2901,13 @@
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="49">
+      <c r="C33" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="2">
         <v>5</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="22">
@@ -2935,10 +2928,10 @@
         <v>17</v>
       </c>
       <c r="M33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -2958,13 +2951,13 @@
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="49">
+      <c r="C34" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="2">
         <v>6</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="22">
@@ -2985,10 +2978,10 @@
         <v>17</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -3008,13 +3001,13 @@
       <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="49">
+      <c r="C35" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="2">
         <v>6</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="22">
@@ -3035,10 +3028,10 @@
         <v>17</v>
       </c>
       <c r="M35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -3058,37 +3051,37 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="49">
+      <c r="C36" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2">
         <v>5</v>
       </c>
-      <c r="E36" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="50">
+      <c r="E36" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="33">
         <v>48</v>
       </c>
-      <c r="G36" s="50">
+      <c r="G36" s="33">
         <v>48</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="50">
+      <c r="J36" s="33">
         <v>60</v>
       </c>
-      <c r="K36" s="50">
+      <c r="K36" s="33">
         <v>6</v>
       </c>
-      <c r="L36" s="50" t="s">
+      <c r="L36" s="33" t="s">
         <v>17</v>
       </c>
       <c r="M36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -3108,37 +3101,37 @@
       <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="49">
+      <c r="C37" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="2">
         <v>5</v>
       </c>
-      <c r="E37" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="51">
+      <c r="E37" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="34">
         <v>48</v>
       </c>
-      <c r="G37" s="51">
+      <c r="G37" s="34">
         <v>32</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="51">
+      <c r="J37" s="34">
         <v>76</v>
       </c>
-      <c r="K37" s="51">
+      <c r="K37" s="34">
         <v>6</v>
       </c>
-      <c r="L37" s="51" t="s">
+      <c r="L37" s="34" t="s">
         <v>17</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -3158,37 +3151,37 @@
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="49">
+      <c r="C38" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="2">
         <v>6</v>
       </c>
-      <c r="E38" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="50">
+      <c r="E38" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="33">
         <v>24</v>
       </c>
-      <c r="G38" s="50">
+      <c r="G38" s="33">
         <v>24</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="50">
+      <c r="J38" s="33">
         <v>30</v>
       </c>
-      <c r="K38" s="50">
+      <c r="K38" s="33">
         <v>3</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="33" t="s">
         <v>17</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -3208,37 +3201,37 @@
       <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6</v>
+      </c>
+      <c r="E39" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="49">
-        <v>6</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F39" s="51">
+      <c r="F39" s="34">
         <v>24</v>
       </c>
-      <c r="G39" s="51">
+      <c r="G39" s="34">
         <v>24</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="51">
+      <c r="J39" s="34">
         <v>30</v>
       </c>
-      <c r="K39" s="51">
+      <c r="K39" s="34">
         <v>3</v>
       </c>
-      <c r="L39" s="51" t="s">
+      <c r="L39" s="34" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -3258,37 +3251,37 @@
       <c r="B40" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D40" s="49">
+      <c r="C40" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="2">
         <v>5</v>
       </c>
-      <c r="E40" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="50">
+      <c r="E40" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="33">
         <v>48</v>
       </c>
-      <c r="G40" s="50">
+      <c r="G40" s="33">
         <v>48</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="50">
+      <c r="J40" s="33">
         <v>60</v>
       </c>
-      <c r="K40" s="50">
+      <c r="K40" s="33">
         <v>6</v>
       </c>
-      <c r="L40" s="50" t="s">
+      <c r="L40" s="33" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -3308,37 +3301,37 @@
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="49">
+      <c r="C41" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="2">
         <v>5</v>
       </c>
-      <c r="E41" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F41" s="51">
+      <c r="E41" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="34">
         <v>48</v>
       </c>
-      <c r="G41" s="51">
+      <c r="G41" s="34">
         <v>32</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="51">
+      <c r="J41" s="34">
         <v>76</v>
       </c>
-      <c r="K41" s="51">
+      <c r="K41" s="34">
         <v>6</v>
       </c>
-      <c r="L41" s="51" t="s">
+      <c r="L41" s="34" t="s">
         <v>17</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -3358,37 +3351,37 @@
       <c r="B42" s="2">
         <v>1</v>
       </c>
-      <c r="C42" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="49">
+      <c r="C42" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="2">
         <v>6</v>
       </c>
-      <c r="E42" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F42" s="50">
+      <c r="E42" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="33">
         <v>24</v>
       </c>
-      <c r="G42" s="50">
+      <c r="G42" s="33">
         <v>24</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="50">
+      <c r="J42" s="33">
         <v>30</v>
       </c>
-      <c r="K42" s="50">
+      <c r="K42" s="33">
         <v>3</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="33" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -3408,37 +3401,37 @@
       <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="49">
+      <c r="C43" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="2">
         <v>6</v>
       </c>
-      <c r="E43" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="51">
+      <c r="E43" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="34">
         <v>24</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="34">
         <v>24</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="51">
+      <c r="J43" s="34">
         <v>30</v>
       </c>
-      <c r="K43" s="51">
+      <c r="K43" s="34">
         <v>3</v>
       </c>
-      <c r="L43" s="51" t="s">
+      <c r="L43" s="34" t="s">
         <v>17</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -3458,37 +3451,37 @@
       <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="49">
+      <c r="C44" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="2">
         <v>5</v>
       </c>
-      <c r="E44" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="50">
+      <c r="E44" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="33">
         <v>48</v>
       </c>
-      <c r="G44" s="50">
+      <c r="G44" s="33">
         <v>32</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="50">
+      <c r="J44" s="33">
         <v>76</v>
       </c>
-      <c r="K44" s="50">
+      <c r="K44" s="33">
         <v>6</v>
       </c>
-      <c r="L44" s="50" t="s">
+      <c r="L44" s="33" t="s">
         <v>17</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -3508,37 +3501,37 @@
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="49">
+      <c r="C45" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="2">
         <v>5</v>
       </c>
-      <c r="E45" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F45" s="51">
+      <c r="E45" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="34">
         <v>48</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="34">
         <v>48</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="51">
+      <c r="J45" s="34">
         <v>60</v>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="34">
         <v>6</v>
       </c>
-      <c r="L45" s="51" t="s">
+      <c r="L45" s="34" t="s">
         <v>17</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -3558,37 +3551,37 @@
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="49">
+      <c r="C46" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="2">
         <v>6</v>
       </c>
-      <c r="E46" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="F46" s="50">
+      <c r="E46" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="33">
         <v>24</v>
       </c>
-      <c r="G46" s="50">
+      <c r="G46" s="33">
         <v>24</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="50">
+      <c r="J46" s="33">
         <v>30</v>
       </c>
-      <c r="K46" s="50">
+      <c r="K46" s="33">
         <v>3</v>
       </c>
-      <c r="L46" s="50" t="s">
+      <c r="L46" s="33" t="s">
         <v>17</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -3608,37 +3601,37 @@
       <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="49">
+      <c r="C47" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="2">
         <v>6</v>
       </c>
-      <c r="E47" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="51">
+      <c r="E47" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="34">
         <v>24</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="34">
         <v>24</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="51">
+      <c r="J47" s="34">
         <v>30</v>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="34">
         <v>3</v>
       </c>
-      <c r="L47" s="51" t="s">
+      <c r="L47" s="34" t="s">
         <v>17</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -3658,34 +3651,34 @@
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="49">
+      <c r="C48" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="33">
         <v>0</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="34">
         <v>48</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="51">
+      <c r="J48" s="34">
         <v>40</v>
       </c>
-      <c r="K48" s="51">
+      <c r="K48" s="34">
         <v>3</v>
       </c>
-      <c r="L48" s="51" t="s">
-        <v>105</v>
+      <c r="L48" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -3706,34 +3699,34 @@
       <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="49">
+      <c r="C49" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="2">
         <v>3</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="34">
         <v>0</v>
       </c>
-      <c r="G49" s="52">
+      <c r="G49" s="34">
         <v>48</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="50">
+      <c r="J49" s="33">
         <v>40</v>
       </c>
-      <c r="K49" s="50">
+      <c r="K49" s="33">
         <v>3</v>
       </c>
-      <c r="L49" s="50" t="s">
-        <v>105</v>
+      <c r="L49" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3754,34 +3747,34 @@
       <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="49">
+      <c r="C50" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="2">
         <v>4</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="50">
+      <c r="F50" s="33">
         <v>0</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G50" s="34">
         <v>48</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="51">
+      <c r="J50" s="34">
         <v>40</v>
       </c>
-      <c r="K50" s="51">
+      <c r="K50" s="34">
         <v>3</v>
       </c>
-      <c r="L50" s="51" t="s">
-        <v>105</v>
+      <c r="L50" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -3802,34 +3795,34 @@
       <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="49">
+      <c r="C51" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="2">
         <v>6</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="34">
         <v>0</v>
       </c>
-      <c r="G51" s="52">
+      <c r="G51" s="34">
         <v>192</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="50">
+      <c r="J51" s="33">
         <v>140</v>
       </c>
-      <c r="K51" s="50">
+      <c r="K51" s="33">
         <v>12</v>
       </c>
-      <c r="L51" s="50" t="s">
-        <v>105</v>
+      <c r="L51" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -3850,34 +3843,34 @@
       <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="49">
+      <c r="C52" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="2">
         <v>7</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="50">
+      <c r="F52" s="33">
         <v>0</v>
       </c>
-      <c r="G52" s="52">
+      <c r="G52" s="34">
         <v>240</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="51">
+      <c r="J52" s="34">
         <v>150</v>
       </c>
-      <c r="K52" s="51">
+      <c r="K52" s="34">
         <v>15</v>
       </c>
-      <c r="L52" s="51" t="s">
-        <v>105</v>
+      <c r="L52" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3895,37 +3888,37 @@
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="43">
-        <v>1</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D53" s="49">
+      <c r="B53" s="27">
+        <v>1</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="2">
         <v>7</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="34">
         <v>0</v>
       </c>
-      <c r="G53" s="52">
+      <c r="G53" s="34">
         <v>32</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="50">
+      <c r="J53" s="33">
         <v>378</v>
       </c>
-      <c r="K53" s="50">
+      <c r="K53" s="33">
         <v>15</v>
       </c>
-      <c r="L53" s="50" t="s">
-        <v>154</v>
+      <c r="L53" s="33" t="s">
+        <v>153</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3943,37 +3936,37 @@
       <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="43">
-        <v>1</v>
-      </c>
-      <c r="C54" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="49">
+      <c r="B54" s="27">
+        <v>1</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="2">
         <v>5</v>
       </c>
-      <c r="E54" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="51">
+      <c r="E54" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="34">
         <v>16</v>
       </c>
-      <c r="G54" s="51">
+      <c r="G54" s="34">
         <v>32</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="51">
+      <c r="J54" s="34">
         <v>30</v>
       </c>
-      <c r="K54" s="51">
+      <c r="K54" s="34">
         <v>3</v>
       </c>
-      <c r="L54" s="51" t="s">
-        <v>105</v>
+      <c r="L54" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -3991,37 +3984,37 @@
       <c r="A55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="43">
-        <v>1</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="49">
+      <c r="B55" s="27">
+        <v>1</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="2">
         <v>5</v>
       </c>
-      <c r="E55" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F55" s="50">
+      <c r="E55" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="33">
         <v>16</v>
       </c>
-      <c r="G55" s="50">
+      <c r="G55" s="33">
         <v>32</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="50">
+      <c r="J55" s="33">
         <v>30</v>
       </c>
-      <c r="K55" s="50">
+      <c r="K55" s="33">
         <v>3</v>
       </c>
-      <c r="L55" s="50" t="s">
-        <v>105</v>
+      <c r="L55" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -4039,37 +4032,37 @@
       <c r="A56" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="43">
-        <v>1</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="49">
+      <c r="B56" s="27">
+        <v>1</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="2">
         <v>6</v>
       </c>
-      <c r="E56" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="51">
+      <c r="E56" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="34">
         <v>24</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G56" s="34">
         <v>24</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="51">
+      <c r="J56" s="34">
         <v>30</v>
       </c>
-      <c r="K56" s="51">
+      <c r="K56" s="34">
         <v>3</v>
       </c>
-      <c r="L56" s="51" t="s">
-        <v>105</v>
+      <c r="L56" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -4087,37 +4080,37 @@
       <c r="A57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="43">
-        <v>1</v>
-      </c>
-      <c r="C57" s="39" t="s">
+      <c r="B57" s="27">
+        <v>1</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="2">
+        <v>6</v>
+      </c>
+      <c r="E57" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="D57" s="49">
-        <v>6</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F57" s="50">
+      <c r="F57" s="33">
         <v>24</v>
       </c>
-      <c r="G57" s="50">
+      <c r="G57" s="33">
         <v>24</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="50">
+      <c r="J57" s="33">
         <v>30</v>
       </c>
-      <c r="K57" s="50">
+      <c r="K57" s="33">
         <v>3</v>
       </c>
-      <c r="L57" s="50" t="s">
-        <v>105</v>
+      <c r="L57" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -4133,18 +4126,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="W5:W6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="O4:O6"/>
     <mergeCell ref="Q4:Q6"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R4:W4"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4155,7 +4148,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4307,10 +4300,10 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>74</v>
@@ -4799,17 +4792,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25661199-707E-4061-A1F1-F77C7DBAE4F0}">
-          <x14:formula1>
-            <xm:f>NELIESTI!$G$5:$G$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>F7:F8</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08739EDB-4A9E-4FA8-B849-5EA9A137A6C7}">
           <x14:formula1>
             <xm:f>NELIESTI!$K$5:$K$7</xm:f>
           </x14:formula1>
           <xm:sqref>G7:G8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25661199-707E-4061-A1F1-F77C7DBAE4F0}">
+          <x14:formula1>
+            <xm:f>NELIESTI!$G$5:$G$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>F7:F8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4822,7 +4815,7 @@
   <dimension ref="D5:I7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4843,10 +4836,10 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
         <v>92</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>49</v>
@@ -4874,7 +4867,7 @@
     </row>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4908,10 +4901,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302BBBF7-1BCB-4EF8-9B5D-634B29036936}">
-  <dimension ref="G5:N22"/>
+  <dimension ref="G5:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4925,7 +4918,7 @@
         <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
         <v>51</v>
@@ -4936,11 +4929,11 @@
         <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="14"/>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -4951,7 +4944,7 @@
         <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -4959,7 +4952,7 @@
         <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -4967,7 +4960,7 @@
         <v>74</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -5028,11 +5021,6 @@
     <row r="21" spans="7:7">
       <c r="G21" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7">
-      <c r="G22" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
